--- a/ClanCompetitionStatistics/2025/3月-4月繁荣度变化.xlsx
+++ b/ClanCompetitionStatistics/2025/3月-4月繁荣度变化.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\vue\template\ClanWarStatistics\ClanCompetitionStatistics\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576BAD2F-1A1E-4DB0-8428-9DA2E2E42A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C383E559-124D-448C-9A12-7B9AACBD9F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>序号</t>
   </si>
@@ -49,6 +49,9 @@
     <t>17</t>
   </si>
   <si>
+    <t>缍飒</t>
+  </si>
+  <si>
     <t>其实很简单</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
     <t>15</t>
   </si>
   <si>
+    <t>wiusyx</t>
+  </si>
+  <si>
     <t>闪耀、天使</t>
   </si>
   <si>
@@ -82,6 +88,15 @@
     <t>石村</t>
   </si>
   <si>
+    <t>靓譚</t>
+  </si>
+  <si>
+    <t>anime</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
     <t>留白</t>
   </si>
   <si>
@@ -94,6 +109,9 @@
     <t>西厢</t>
   </si>
   <si>
+    <t>煞长灬丿啸</t>
+  </si>
+  <si>
     <t>呵呵</t>
   </si>
   <si>
@@ -109,9 +127,15 @@
     <t>RSHUO</t>
   </si>
   <si>
+    <t>辉总</t>
+  </si>
+  <si>
     <t>sleep</t>
   </si>
   <si>
+    <t>清风 / 于世 '</t>
+  </si>
+  <si>
     <t>我就睡觉</t>
   </si>
   <si>
@@ -124,6 +148,9 @@
     <t>葱葱拉满</t>
   </si>
   <si>
+    <t>廾匸</t>
+  </si>
+  <si>
     <t>橘柚</t>
   </si>
   <si>
@@ -134,6 +161,9 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>Xber</t>
   </si>
   <si>
     <t>爱吃蛋炒饭</t>
@@ -523,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -566,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>76</v>
@@ -578,7 +608,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -589,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>66</v>
@@ -601,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>15</v>
@@ -612,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>68</v>
@@ -624,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -638,10 +668,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -658,22 +688,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -681,22 +711,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -704,19 +734,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D8">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -727,19 +757,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -753,19 +783,19 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -773,22 +803,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -796,22 +826,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -819,19 +849,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13">
         <v>16</v>
@@ -842,22 +872,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G14">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -865,22 +895,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,22 +918,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -911,22 +941,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -934,19 +964,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -957,22 +987,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -980,22 +1010,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D20">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1003,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C21">
+        <v>67</v>
+      </c>
+      <c r="D21">
         <v>71</v>
       </c>
-      <c r="D21">
-        <v>74</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1026,22 +1056,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C22">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D22">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22">
         <v>14</v>
-      </c>
-      <c r="G22">
-        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1049,19 +1079,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C23">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <v>15</v>
@@ -1072,22 +1102,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="E24">
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1095,19 +1125,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G25">
         <v>16</v>
@@ -1118,22 +1148,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G26">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1141,22 +1171,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D27">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1164,19 +1194,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D28">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G28">
         <v>17</v>
@@ -1187,22 +1217,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C29">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D29">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G29">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1210,22 +1240,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D30">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G30">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1233,27 +1263,257 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>68</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>66</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>58</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34">
         <v>39</v>
       </c>
-      <c r="C31">
+      <c r="D34">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>104</v>
+      </c>
+      <c r="D35">
+        <v>106</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>78</v>
+      </c>
+      <c r="D36">
+        <v>80</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>78</v>
+      </c>
+      <c r="D37">
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>64</v>
+      </c>
+      <c r="D38">
+        <v>66</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>55</v>
+      </c>
+      <c r="D39">
+        <v>57</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>55</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41">
         <v>48</v>
       </c>
-      <c r="D31">
+      <c r="D41">
         <v>50</v>
       </c>
-      <c r="E31">
+      <c r="E41">
         <v>2</v>
       </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31">
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-    <sortCondition descending="1" ref="E1:E31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G41">
+    <sortCondition descending="1" ref="E2:E41"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
